--- a/medicine/Psychotrope/Savennières_(AOC)/Savennières_(AOC).xlsx
+++ b/medicine/Psychotrope/Savennières_(AOC)/Savennières_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le savennières est un vin blanc d'appellation d'origine contrôlée produit sur les communes de Bouchemaine, La Possonnière et Savennières, sur la rive droite de la Loire, en aval d'Angers. Cette appellation, voisine des coteaux-de-l'aubance et des coteaux-du-layon, fait partie du vignoble de la vallée de la Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Il semble que, dès l'époque romaine, du vin soit élevé sur l'aire d'appellation[réf. nécessaire].
-Moyen Âge
-La culture de la vigne se développe à l’époque des grandes abbayes notamment au XIIe siècle avec les moines de Saint-Nicolas d'Angers. Puis, les seigneurs angevins la poursuivent.
-Période moderne
-La comtesse de Serrant fait connaître le vin de Savennières à la cour de Napoléon Ier. La viticulture prend de l'ampleur au XIXe siècle avec la bourgeoisie angevine[4].
-Période contemporaine
-Le Savennières, AOC par décret du 8 décembre 1952, est l’un des trois grands crus de l’Anjou avec le Quart-de-Chaume et le Bonnezeaux.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble que, dès l'époque romaine, du vin soit élevé sur l'aire d'appellation[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -532,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La commune de Savennières, d'où l’appellation tire son nom, s’appelait jadis Saponaria, qu’il faut rapprocher de la saponaire, plante herbacée à fleurs roses que l’on trouve dans les lieux humides au-dessus de la Loire.
-La saponaire contient de la saponine qui fait mousser l’eau comme du savon. Dans son livre sur les lavoirs d’Anjou Bernard Augereau écrit qu’elle « était souvent employée pour nettoyer les étoffes de laine, parfois, aussi pour décruer les fils ou blanchir les dentelles. Dans ce but, on arrachait les racines à l’automne et on les coupait en petits morceaux. On recueillait aussi les feuilles avant la floraison ». La saponaire est encore utilisée pour nettoyer les tapisseries anciennes de valeur, telles que celles d’Aubusson. Appelée aussi savonnières, savonaires, savon de fossé ou herbe au savon, cette plante était également employée pour soigner les maladies de peau.
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de la vigne se développe à l’époque des grandes abbayes notamment au XIIe siècle avec les moines de Saint-Nicolas d'Angers. Puis, les seigneurs angevins la poursuivent.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire d'appellation se trouve au sud-ouest à 15 km d'Angers sur la rive nord de la Loire. Elle s'étend sur 350 ha dont 150 en culture et sur trois communes : Savennières, Bouchemaine et La Possonnière.
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La comtesse de Serrant fait connaître le vin de Savennières à la cour de Napoléon Ier. La viticulture prend de l'ampleur au XIXe siècle avec la bourgeoisie angevine.
 </t>
         </is>
       </c>
@@ -595,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Géologie et orographie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire d'appellation s'étend sur un plateau de schiste face à la Loire. Des coulées ont fissuré ce plateau et formé des coteaux, présentant des pentes admirablement exposées comme le Grand Clos sur  la Coulée de Serrant, la Roche aux Moines sur les Petites Coulées , et le Clos du papillon sur le coteau des Coulées.  Les sols, peu profonds, sont composés de schistes gréseux, de filons volcaniques (rhyolites) et de sables éoliens.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Savennières, AOC par décret du 8 décembre 1952, est l’un des trois grands crus de l’Anjou avec le Quart-de-Chaume et le Bonnezeaux.
 </t>
         </is>
       </c>
@@ -626,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,13 +669,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Climat</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins de Savennières bénéficient d'un climat semi océanique, permettant l’élaboration de vins blancs secs d'une très grande finesse. Les orages passent le plus souvent sur la rive gauche de la Loire, épargnant Savennières[4].
-Source : Climatologie de 1947 à 2008 - Angers, France
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune de Savennières, d'où l’appellation tire son nom, s’appelait jadis Saponaria, qu’il faut rapprocher de la saponaire, plante herbacée à fleurs roses que l’on trouve dans les lieux humides au-dessus de la Loire.
+La saponaire contient de la saponine qui fait mousser l’eau comme du savon. Dans son livre sur les lavoirs d’Anjou Bernard Augereau écrit qu’elle « était souvent employée pour nettoyer les étoffes de laine, parfois, aussi pour décruer les fils ou blanchir les dentelles. Dans ce but, on arrachait les racines à l’automne et on les coupait en petits morceaux. On recueillait aussi les feuilles avant la floraison ». La saponaire est encore utilisée pour nettoyer les tapisseries anciennes de valeur, telles que celles d’Aubusson. Appelée aussi savonnières, savonaires, savon de fossé ou herbe au savon, cette plante était également employée pour soigner les maladies de peau.
 </t>
         </is>
       </c>
@@ -658,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Savenni%C3%A8res_(AOC)</t>
+          <t>Savennières_(AOC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,27 +703,342 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'appellation se trouve au sud-ouest à 15 km d'Angers sur la rive nord de la Loire. Elle s'étend sur 350 ha dont 150 en culture et sur trois communes : Savennières, Bouchemaine et La Possonnière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'appellation s'étend sur un plateau de schiste face à la Loire. Des coulées ont fissuré ce plateau et formé des coteaux, présentant des pentes admirablement exposées comme le Grand Clos sur  la Coulée de Serrant, la Roche aux Moines sur les Petites Coulées , et le Clos du papillon sur le coteau des Coulées.  Les sols, peu profonds, sont composés de schistes gréseux, de filons volcaniques (rhyolites) et de sables éoliens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Savennières bénéficient d'un climat semi océanique, permettant l’élaboration de vins blancs secs d'une très grande finesse. Les orages passent le plus souvent sur la rive gauche de la Loire, épargnant Savennières.
+Source : Climatologie de 1947 à 2008 - Angers, France
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Présentation
-Il s'étend sur environ 150 hectares (moy. 2005/2009), dont 33 hectares pour Savennières-Roche-aux-Moines et 7 hectares pour la Coulée-de-Serrant.
-L'INAO valide, lors de sa réunion du 28 septembre 2011, la création des AOC Savennières Coulée de Serrant et Savennières Roche aux Moines qui sont ensuite adoptées par décret le 23 novembre 2011[5],[6]. Elles deviennent distinctes de l'AOC Savennières.
-Encépagement
-Le cépage unique de l'AOC Savennières est le chenin blanc (ou pineau de la Loire, pineau de Savennières). 
-Méthodes culturales
-La vigne est traitée en taille Guyot double à 2x3 yeux ou gobelet à 3x2 yeux. Les vendanges sont manuelles avec tris successifs afin de cueillir les grappes au parfait moment de maturité selon le style souhaité. Une grande partie du vignoble est en agriculture biologique voire en biodynamique.
-Rendements, réglementations
-Planté à des densités de 4 500 à 5 000 pieds/ha. Les rendements maximum autorisés sont de 50 hl/ha (40 hl/ha pour les demi-secs et mœlleux, très minoritaires). Mais le rendement moyen se situe en général autour de 25/30 hl par ha. 
-Vin
-Les vins de Savennières sont vinifiés uniquement à partir du chenin blanc. Ces vins ont une bonne aptitude au vieillissement en bouteille (maturité à 5 ans et garde jusqu'à 15 ans). Ce sont des vins blancs secs, toutefois tendres et bien structurés, très riches en arômes[7]. 
-Production
-La production annuelle est d'environ de 5208 hl.
-Commercialisation
-La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les cafés-hôtels-restaurants (C.H.R.), dans les grandes et moyennes surfaces (G.M.S.).
-Exploitations</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'étend sur environ 150 hectares (moy. 2005/2009), dont 33 hectares pour Savennières-Roche-aux-Moines et 7 hectares pour la Coulée-de-Serrant.
+L'INAO valide, lors de sa réunion du 28 septembre 2011, la création des AOC Savennières Coulée de Serrant et Savennières Roche aux Moines qui sont ensuite adoptées par décret le 23 novembre 2011,. Elles deviennent distinctes de l'AOC Savennières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage unique de l'AOC Savennières est le chenin blanc (ou pineau de la Loire, pineau de Savennières). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne est traitée en taille Guyot double à 2x3 yeux ou gobelet à 3x2 yeux. Les vendanges sont manuelles avec tris successifs afin de cueillir les grappes au parfait moment de maturité selon le style souhaité. Une grande partie du vignoble est en agriculture biologique voire en biodynamique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rendements, réglementations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Planté à des densités de 4 500 à 5 000 pieds/ha. Les rendements maximum autorisés sont de 50 hl/ha (40 hl/ha pour les demi-secs et mœlleux, très minoritaires). Mais le rendement moyen se situe en général autour de 25/30 hl par ha. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vin</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Savennières sont vinifiés uniquement à partir du chenin blanc. Ces vins ont une bonne aptitude au vieillissement en bouteille (maturité à 5 ans et garde jusqu'à 15 ans). Ce sont des vins blancs secs, toutefois tendres et bien structurés, très riches en arômes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production annuelle est d'environ de 5208 hl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Savennières_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savenni%C3%A8res_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les cafés-hôtels-restaurants (C.H.R.), dans les grandes et moyennes surfaces (G.M.S.).
+</t>
         </is>
       </c>
     </row>
